--- a/biology/Zoologie/Anaecypris/Anaecypris.xlsx
+++ b/biology/Zoologie/Anaecypris/Anaecypris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anaecypris hispanica est une espèce de poissons osseux de la famille des Cyprinidae qui vit dans le Guadiana, dans la péninsule Ibérique. C'est le seul représentant du genre Anaecypris. Il est considéré comme espèce menacée en raison de la dégradation de son habitat. Il est appelé Jarabugo en Espagne et Saramugo au Portugal[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaecypris hispanica est une espèce de poissons osseux de la famille des Cyprinidae qui vit dans le Guadiana, dans la péninsule Ibérique. C'est le seul représentant du genre Anaecypris. Il est considéré comme espèce menacée en raison de la dégradation de son habitat. Il est appelé Jarabugo en Espagne et Saramugo au Portugal.
 </t>
         </is>
       </c>
